--- a/results/diagnostic_tests.xlsx
+++ b/results/diagnostic_tests.xlsx
@@ -401,7 +401,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -415,7 +415,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
